--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3795666.94</v>
+        <v>11341772.58</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130885.07</v>
+        <v>241314.31</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191326.37</v>
+        <v>198189.86</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84273.45</v>
+        <v>84354.08</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232987.23</v>
+        <v>232878.86</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244998.61</v>
+        <v>251111</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59144.68</v>
+        <v>59111.87</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>439872.22</v>
+        <v>439914.48</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174946.54</v>
+        <v>175082.84</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243366.97</v>
+        <v>240545.37</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98619.59</v>
+        <v>97620.92</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151867.41</v>
+        <v>146809.72</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280360.72</v>
+        <v>280123.13</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96209.07000000001</v>
+        <v>96229.71000000001</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503860.61</v>
+        <v>503702.58</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66533.67</v>
+        <v>66508.8</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152849.16</v>
+        <v>152834.13</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162204.53</v>
+        <v>163435.62</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61622.52</v>
+        <v>61509.58</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96867.25999999999</v>
+        <v>96806.38</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41957.81</v>
+        <v>41955.72</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30782.95</v>
+        <v>33045.51</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56590.03</v>
+        <v>56507.11</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31714.65</v>
+        <v>26750.78</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83581.16</v>
+        <v>94336.37</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31943.2</v>
+        <v>31938.61</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10790.82</v>
+        <v>10783.74</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87607.57000000001</v>
+        <v>87582.49000000001</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42706.07</v>
+        <v>42747.01</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5905.1</v>
+        <v>5901.68</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,187 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30176.97</v>
+        <v>30196.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>211041.76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>61983.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>167.83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>558138.15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>390877.47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>25664.57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>23711.77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>55153.6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6658.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>725748.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>105847.54</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>16812.39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1308193.48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4547.66</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5901.68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1316413.81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>716220.24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2000174.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -823,7 +823,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,498 +436,646 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11341772.58</v>
+        <v>103998.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>104034.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241314.31</v>
+        <v>199380.52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>191911.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198189.86</v>
+        <v>31957.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31947.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84354.08</v>
+        <v>56536.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53609.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232878.86</v>
+        <v>84403.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>84343.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>251111</v>
+        <v>232806.43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232798.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59111.87</v>
+        <v>6652.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6662.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>439914.48</v>
+        <v>703720.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>704406.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175082.84</v>
+        <v>10788.39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10072.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240545.37</v>
+        <v>16823.11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16812.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97620.92</v>
+        <v>235183.35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>208523.69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146809.72</v>
-      </c>
+        <v>59131.74</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280123.13</v>
+        <v>211094.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>213757.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96229.71000000001</v>
+        <v>1297007.01</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1284814.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503702.58</v>
+        <v>440084.91</v>
+      </c>
+      <c r="C16" t="n">
+        <v>439565.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66508.8</v>
+        <v>175085.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>174898.74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152834.13</v>
+        <v>558109.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>558129.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163435.62</v>
+        <v>390901.59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>390493.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61509.58</v>
+        <v>62061.35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>61968.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96806.38</v>
+        <v>106401.03</v>
+      </c>
+      <c r="C21" t="n">
+        <v>106145.82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41955.72</v>
+        <v>168.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>168.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33045.51</v>
+        <v>160135.15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>175952.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56507.11</v>
+        <v>165329.73</v>
+      </c>
+      <c r="C24" t="n">
+        <v>173673.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26750.78</v>
+        <v>241664.97</v>
+      </c>
+      <c r="C25" t="n">
+        <v>215351.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>94336.37</v>
+        <v>97433.36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>95490.92999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31938.61</v>
+        <v>87635.16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>87729.00999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>10783.74</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1976674.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87582.49000000001</v>
+        <v>42723.55</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45747.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42747.01</v>
+        <v>4557.43</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4558.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5901.68</v>
+        <v>138802.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>138789.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30196.73</v>
+        <v>280137.81</v>
+      </c>
+      <c r="C32" t="n">
+        <v>275283.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>211041.76</v>
+        <v>34885.04</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32436.65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61983.52</v>
+        <v>5900.42</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8103.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.83</v>
+        <v>5900.42</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8103.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>558138.15</v>
+        <v>21711.28</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21706.76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390877.47</v>
+        <v>23731.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23745.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25664.57</v>
+        <v>30158.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30176.82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23711.77</v>
+        <v>61550.17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>61581.46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55153.6</v>
+        <v>96914.07000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132762.87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6658.89</v>
+        <v>26725.27</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34754.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>725748.8</v>
+        <v>96307.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96329.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105847.54</v>
+        <v>66453.69</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66545.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16812.39</v>
+        <v>503952.53</v>
+      </c>
+      <c r="C44" t="n">
+        <v>548193.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1308193.48</v>
+        <v>1317395.56</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1317408.94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4547.66</v>
+        <v>715903.4399999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>715172.0600000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5901.68</v>
+        <v>54968.34</v>
+      </c>
+      <c r="C47" t="n">
+        <v>54956.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1316413.81</v>
+        <v>41948.51</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41918.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>716220.24</v>
+        <v>202285.29</v>
+      </c>
+      <c r="C49" t="n">
+        <v>244743.64</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2000174.74</v>
+        <v>9305123.24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11258207.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,634 +443,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103998.62</v>
-      </c>
-      <c r="C2" t="n">
-        <v>104034.32</v>
+        <v>11321720.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199380.52</v>
-      </c>
-      <c r="C3" t="n">
-        <v>191911.68</v>
+        <v>240887.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31957.76</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31947.73</v>
+        <v>104034.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56536.41</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53609.39</v>
+        <v>191911.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84403.97</v>
-      </c>
-      <c r="C6" t="n">
-        <v>84343.23</v>
+        <v>31947.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232806.43</v>
-      </c>
-      <c r="C7" t="n">
-        <v>232798.17</v>
+        <v>53609.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6652.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6662.21</v>
+        <v>84343.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>703720.48</v>
-      </c>
-      <c r="C9" t="n">
-        <v>704406.59</v>
+        <v>232798.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10788.39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10072.37</v>
+        <v>6662.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16823.11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16812.59</v>
+        <v>704406.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>235183.35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>208523.69</v>
+        <v>10072.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59131.74</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>16812.59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>211094.02</v>
-      </c>
-      <c r="C14" t="n">
-        <v>213757.81</v>
+        <v>208523.69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1297007.01</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1284814.59</v>
+        <v>59095.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440084.91</v>
-      </c>
-      <c r="C16" t="n">
-        <v>439565.08</v>
+        <v>213757.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175085.27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>174898.74</v>
+        <v>1284814.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>558109.29</v>
-      </c>
-      <c r="C18" t="n">
-        <v>558129.01</v>
+        <v>12520.43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390901.59</v>
-      </c>
-      <c r="C19" t="n">
-        <v>390493.53</v>
+        <v>439565.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62061.35</v>
-      </c>
-      <c r="C20" t="n">
-        <v>61968.7</v>
+        <v>174898.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106401.03</v>
-      </c>
-      <c r="C21" t="n">
-        <v>106145.82</v>
+        <v>61968.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.93</v>
-      </c>
-      <c r="C22" t="n">
         <v>168.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160135.15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>175952.1</v>
+        <v>558129.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165329.73</v>
-      </c>
-      <c r="C24" t="n">
-        <v>173673.42</v>
+        <v>390493.53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241664.97</v>
-      </c>
-      <c r="C25" t="n">
-        <v>215351.45</v>
+        <v>106145.82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97433.36</v>
-      </c>
-      <c r="C26" t="n">
-        <v>95490.92999999999</v>
+        <v>175952.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87635.16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>87729.00999999999</v>
+        <v>173673.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>1976674.58</v>
+          <t>Fima Acciones</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>215351.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42723.55</v>
-      </c>
-      <c r="C29" t="n">
-        <v>45747.36</v>
+        <v>95490.92999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4557.43</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4558.05</v>
+        <v>87729.00999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138802.49</v>
-      </c>
-      <c r="C31" t="n">
-        <v>138789.82</v>
+        <v>1976674.58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280137.81</v>
-      </c>
-      <c r="C32" t="n">
-        <v>275283.19</v>
+        <v>45747.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34885.04</v>
-      </c>
-      <c r="C33" t="n">
-        <v>32436.65</v>
+        <v>4558.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5900.42</v>
-      </c>
-      <c r="C34" t="n">
-        <v>8103.05</v>
+        <v>138789.82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5900.42</v>
-      </c>
-      <c r="C35" t="n">
-        <v>8103.05</v>
+        <v>275283.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21711.28</v>
-      </c>
-      <c r="C36" t="n">
-        <v>21706.76</v>
+        <v>32436.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23731.7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>23745.09</v>
+        <v>8103.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30158.57</v>
-      </c>
-      <c r="C38" t="n">
-        <v>30176.82</v>
+        <v>21706.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61550.17</v>
-      </c>
-      <c r="C39" t="n">
-        <v>61581.46</v>
+        <v>23745.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96914.07000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>132762.87</v>
+        <v>30176.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26725.27</v>
-      </c>
-      <c r="C41" t="n">
-        <v>34754.06</v>
+        <v>61581.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96307.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>96329.37</v>
+        <v>132762.87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66453.69</v>
-      </c>
-      <c r="C43" t="n">
-        <v>66545.2</v>
+        <v>34754.06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>503952.53</v>
-      </c>
-      <c r="C44" t="n">
-        <v>548193.05</v>
+        <v>96329.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1317395.56</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1317408.94</v>
+        <v>66545.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>715903.4399999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>715172.0600000001</v>
+        <v>548193.05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>54968.34</v>
-      </c>
-      <c r="C47" t="n">
-        <v>54956.5</v>
+        <v>1317408.94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>41948.51</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41918.65</v>
+        <v>715172.0600000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>202285.29</v>
-      </c>
-      <c r="C49" t="n">
-        <v>244743.64</v>
+        <v>54956.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9305123.24</v>
-      </c>
-      <c r="C50" t="n">
-        <v>11258207.48</v>
+        <v>41918.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,625 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11321720.08</v>
+        <v>104034.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>116303.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240887.66</v>
+        <v>191911.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>203468.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104034.32</v>
+        <v>31947.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33986.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191911.68</v>
+        <v>53609.39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53649.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31947.73</v>
+        <v>84343.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>84284.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53609.39</v>
+        <v>232798.17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232958.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84343.23</v>
+        <v>6662.21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4153.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232798.17</v>
+        <v>704406.59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>701809.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6662.21</v>
+        <v>10072.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10064.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>704406.59</v>
+        <v>16812.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16817.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10072.37</v>
+        <v>208523.69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>176487.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16812.59</v>
+        <v>59095.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66018.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208523.69</v>
+        <v>213757.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>213795.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59095.22</v>
+        <v>1284814.59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1272281.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213757.81</v>
+        <v>12520.43</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12520.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1284814.59</v>
-      </c>
+        <v>439565.08</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12520.43</v>
-      </c>
+        <v>174898.74</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>439565.08</v>
-      </c>
+        <v>61968.7</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174898.74</v>
-      </c>
+        <v>168.74</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61968.7</v>
-      </c>
+        <v>558129.01</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.74</v>
-      </c>
+        <v>390493.53</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>558129.01</v>
-      </c>
+        <v>106145.82</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>390493.53</v>
-      </c>
+        <v>175952.1</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106145.82</v>
-      </c>
+        <v>173673.42</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175952.1</v>
-      </c>
+        <v>215351.45</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173673.42</v>
+        <v>95490.92999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100237.12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>215351.45</v>
+        <v>87729.00999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>87721.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95490.92999999999</v>
+        <v>1976674.58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1928360.97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87729.00999999999</v>
+        <v>45747.36</v>
+      </c>
+      <c r="C30" t="n">
+        <v>45714.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1976674.58</v>
+        <v>4558.05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4555.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45747.36</v>
+        <v>138789.82</v>
+      </c>
+      <c r="C32" t="n">
+        <v>133733.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4558.05</v>
+        <v>275283.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>265073.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138789.82</v>
+        <v>32436.65</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33943.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>275283.19</v>
+        <v>8103.05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8104.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32436.65</v>
+        <v>21706.76</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21711.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8103.05</v>
+        <v>23745.09</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23704.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21706.76</v>
+        <v>30176.82</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30163.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23745.09</v>
-      </c>
+        <v>61581.46</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30176.82</v>
+        <v>132762.87</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132740.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61581.46</v>
+        <v>34754.06</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34785.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132762.87</v>
+        <v>96329.37</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96227.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34754.06</v>
+        <v>66545.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66517.99000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96329.37</v>
+        <v>548193.05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>560367.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66545.2</v>
+        <v>1317408.94</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1317359.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>548193.05</v>
+        <v>715172.0600000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>716517.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1317408.94</v>
+        <v>54956.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>55248.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>715172.0600000001</v>
+        <v>41918.65</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38263.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>54956.5</v>
+        <v>240887.66</v>
+      </c>
+      <c r="C49" t="n">
+        <v>247212.54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41918.65</v>
+        <v>11321720.08</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8899651.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>116303.33</v>
       </c>
+      <c r="D2" t="n">
+        <v>138856.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>203468.12</v>
       </c>
+      <c r="D3" t="n">
+        <v>203460.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>33986.48</v>
       </c>
+      <c r="D4" t="n">
+        <v>37937.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>53649.92</v>
       </c>
+      <c r="D5" t="n">
+        <v>53615.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>84284.61</v>
       </c>
+      <c r="D6" t="n">
+        <v>84280.94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>232958.18</v>
       </c>
+      <c r="D7" t="n">
+        <v>232694.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>4153.07</v>
       </c>
+      <c r="D8" t="n">
+        <v>4178.65</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>701809.37</v>
       </c>
+      <c r="D9" t="n">
+        <v>740380.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>10064.37</v>
       </c>
+      <c r="D10" t="n">
+        <v>10079.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>16817.52</v>
       </c>
+      <c r="D11" t="n">
+        <v>16814.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>176487.81</v>
       </c>
+      <c r="D12" t="n">
+        <v>159566.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>66018.27</v>
       </c>
+      <c r="D13" t="n">
+        <v>68472.66</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>213795.36</v>
       </c>
+      <c r="D14" t="n">
+        <v>213735.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>1272281.84</v>
       </c>
+      <c r="D15" t="n">
+        <v>1269199.99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>12520.97</v>
       </c>
+      <c r="D16" t="n">
+        <v>12522.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -650,6 +700,9 @@
         <v>439565.08</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>439678</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -661,6 +714,9 @@
         <v>174898.74</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>175064.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -672,6 +728,9 @@
         <v>61968.7</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>58139.82</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -683,6 +742,9 @@
         <v>168.74</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>167.69</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -694,6 +756,9 @@
         <v>558129.01</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>523848.18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -705,6 +770,9 @@
         <v>390493.53</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>372231.98</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -716,6 +784,9 @@
         <v>106145.82</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>106377.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -727,6 +798,9 @@
         <v>175952.1</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>167897.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -738,6 +812,9 @@
         <v>173673.42</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>171684.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -749,6 +826,9 @@
         <v>215351.45</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>199185.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -762,6 +842,9 @@
       <c r="C27" t="n">
         <v>100237.12</v>
       </c>
+      <c r="D27" t="n">
+        <v>103219.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -775,6 +858,9 @@
       <c r="C28" t="n">
         <v>87721.81</v>
       </c>
+      <c r="D28" t="n">
+        <v>62722.62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -788,6 +874,9 @@
       <c r="C29" t="n">
         <v>1928360.97</v>
       </c>
+      <c r="D29" t="n">
+        <v>1927707.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -801,6 +890,9 @@
       <c r="C30" t="n">
         <v>45714.74</v>
       </c>
+      <c r="D30" t="n">
+        <v>35730.41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -814,6 +906,9 @@
       <c r="C31" t="n">
         <v>4555.44</v>
       </c>
+      <c r="D31" t="n">
+        <v>4554.66</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -827,6 +922,9 @@
       <c r="C32" t="n">
         <v>133733.32</v>
       </c>
+      <c r="D32" t="n">
+        <v>128764.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -840,6 +938,9 @@
       <c r="C33" t="n">
         <v>265073.7</v>
       </c>
+      <c r="D33" t="n">
+        <v>225396.48</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -853,6 +954,9 @@
       <c r="C34" t="n">
         <v>33943.21</v>
       </c>
+      <c r="D34" t="n">
+        <v>43659.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -866,6 +970,9 @@
       <c r="C35" t="n">
         <v>8104.65</v>
       </c>
+      <c r="D35" t="n">
+        <v>9325.459999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -879,6 +986,9 @@
       <c r="C36" t="n">
         <v>21711.31</v>
       </c>
+      <c r="D36" t="n">
+        <v>21656.68</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -892,6 +1002,9 @@
       <c r="C37" t="n">
         <v>23704.47</v>
       </c>
+      <c r="D37" t="n">
+        <v>23747.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -905,6 +1018,9 @@
       <c r="C38" t="n">
         <v>30163.52</v>
       </c>
+      <c r="D38" t="n">
+        <v>21802.78</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -916,6 +1032,9 @@
         <v>61581.46</v>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>61608.13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -929,6 +1048,9 @@
       <c r="C40" t="n">
         <v>132740.58</v>
       </c>
+      <c r="D40" t="n">
+        <v>132695.81</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -942,6 +1064,9 @@
       <c r="C41" t="n">
         <v>34785.32</v>
       </c>
+      <c r="D41" t="n">
+        <v>34697.72</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -955,6 +1080,9 @@
       <c r="C42" t="n">
         <v>96227.52</v>
       </c>
+      <c r="D42" t="n">
+        <v>96150.28</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -968,6 +1096,9 @@
       <c r="C43" t="n">
         <v>66517.99000000001</v>
       </c>
+      <c r="D43" t="n">
+        <v>62656.78</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -981,6 +1112,9 @@
       <c r="C44" t="n">
         <v>560367.16</v>
       </c>
+      <c r="D44" t="n">
+        <v>572931.5699999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -994,6 +1128,9 @@
       <c r="C45" t="n">
         <v>1317359.35</v>
       </c>
+      <c r="D45" t="n">
+        <v>1317336.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1007,6 +1144,9 @@
       <c r="C46" t="n">
         <v>716517.87</v>
       </c>
+      <c r="D46" t="n">
+        <v>767218.66</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1020,6 +1160,9 @@
       <c r="C47" t="n">
         <v>55248.68</v>
       </c>
+      <c r="D47" t="n">
+        <v>55593.54</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1033,6 +1176,9 @@
       <c r="C48" t="n">
         <v>38263.48</v>
       </c>
+      <c r="D48" t="n">
+        <v>38306.38</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1046,6 +1192,9 @@
       <c r="C49" t="n">
         <v>247212.54</v>
       </c>
+      <c r="D49" t="n">
+        <v>238458.54</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1058,6 +1207,9 @@
       </c>
       <c r="C50" t="n">
         <v>8899651.43</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11207551.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>138856.69</v>
       </c>
+      <c r="E2" t="n">
+        <v>150692.89</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>203460.9</v>
       </c>
+      <c r="E3" t="n">
+        <v>216322.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,719 +508,871 @@
       <c r="D4" t="n">
         <v>37937.08</v>
       </c>
+      <c r="E4" t="n">
+        <v>38010.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>53609.39</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53649.92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53615.01</v>
+          <t>Adcap Wise</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>86329.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84343.23</v>
+        <v>53609.39</v>
       </c>
       <c r="C6" t="n">
-        <v>84284.61</v>
+        <v>53649.92</v>
       </c>
       <c r="D6" t="n">
-        <v>84280.94</v>
+        <v>53615.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54868.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232798.17</v>
+        <v>84343.23</v>
       </c>
       <c r="C7" t="n">
-        <v>232958.18</v>
+        <v>84284.61</v>
       </c>
       <c r="D7" t="n">
-        <v>232694.66</v>
+        <v>84280.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>84190.60000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6662.21</v>
+        <v>232798.17</v>
       </c>
       <c r="C8" t="n">
-        <v>4153.07</v>
+        <v>232958.18</v>
       </c>
       <c r="D8" t="n">
-        <v>4178.65</v>
+        <v>232694.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>232783.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>704406.59</v>
+        <v>6662.21</v>
       </c>
       <c r="C9" t="n">
-        <v>701809.37</v>
+        <v>4153.07</v>
       </c>
       <c r="D9" t="n">
-        <v>740380.04</v>
+        <v>4178.65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4180.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10072.37</v>
+        <v>704406.59</v>
       </c>
       <c r="C10" t="n">
-        <v>10064.37</v>
+        <v>701809.37</v>
       </c>
       <c r="D10" t="n">
-        <v>10079.11</v>
+        <v>740380.04</v>
+      </c>
+      <c r="E10" t="n">
+        <v>703849.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16812.59</v>
+        <v>10072.37</v>
       </c>
       <c r="C11" t="n">
-        <v>16817.52</v>
+        <v>10064.37</v>
       </c>
       <c r="D11" t="n">
-        <v>16814.75</v>
+        <v>10079.11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10079.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>208523.69</v>
+        <v>16812.59</v>
       </c>
       <c r="C12" t="n">
-        <v>176487.81</v>
+        <v>16817.52</v>
       </c>
       <c r="D12" t="n">
-        <v>159566.2</v>
+        <v>16814.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16814.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59095.22</v>
+        <v>208523.69</v>
       </c>
       <c r="C13" t="n">
-        <v>66018.27</v>
+        <v>176487.81</v>
       </c>
       <c r="D13" t="n">
-        <v>68472.66</v>
+        <v>159566.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>159509.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213757.81</v>
+        <v>59095.22</v>
       </c>
       <c r="C14" t="n">
-        <v>213795.36</v>
+        <v>66018.27</v>
       </c>
       <c r="D14" t="n">
-        <v>213735.11</v>
+        <v>68472.66</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77746.60000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1284814.59</v>
+        <v>213757.81</v>
       </c>
       <c r="C15" t="n">
-        <v>1272281.84</v>
+        <v>213795.36</v>
       </c>
       <c r="D15" t="n">
-        <v>1269199.99</v>
+        <v>213735.11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>213813.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12520.43</v>
+        <v>1284814.59</v>
       </c>
       <c r="C16" t="n">
-        <v>12520.97</v>
+        <v>1272281.84</v>
       </c>
       <c r="D16" t="n">
-        <v>12522.36</v>
+        <v>1269199.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1261907.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>439565.08</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>12520.43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12520.97</v>
+      </c>
       <c r="D17" t="n">
-        <v>439678</v>
+        <v>12522.36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12522.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>174898.74</v>
+        <v>439565.08</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>175064.54</v>
+        <v>439678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>439705.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61968.7</v>
+        <v>174898.74</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>58139.82</v>
+        <v>175064.54</v>
+      </c>
+      <c r="E19" t="n">
+        <v>174910.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>168.74</v>
+        <v>61968.7</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>167.69</v>
+        <v>58139.82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58172.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>558129.01</v>
+        <v>168.74</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>523848.18</v>
+        <v>167.69</v>
+      </c>
+      <c r="E21" t="n">
+        <v>169.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390493.53</v>
+        <v>558129.01</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>372231.98</v>
+        <v>523848.18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>521541.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106145.82</v>
+        <v>390493.53</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>106377.8</v>
+        <v>372231.98</v>
+      </c>
+      <c r="E23" t="n">
+        <v>365106.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>175952.1</v>
+        <v>106145.82</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>167897.03</v>
+        <v>106377.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105901.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173673.42</v>
+        <v>175952.1</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>171684.12</v>
+        <v>167897.03</v>
+      </c>
+      <c r="E25" t="n">
+        <v>168737.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>215351.45</v>
+        <v>173673.42</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>199185.43</v>
+        <v>171684.12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>160320.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95490.92999999999</v>
-      </c>
-      <c r="C27" t="n">
-        <v>100237.12</v>
-      </c>
+        <v>215351.45</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>103219.71</v>
+        <v>199185.43</v>
+      </c>
+      <c r="E27" t="n">
+        <v>308615.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87729.00999999999</v>
+        <v>95490.92999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>87721.81</v>
+        <v>100237.12</v>
       </c>
       <c r="D28" t="n">
-        <v>62722.62</v>
+        <v>103219.71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>106095.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1976674.58</v>
+        <v>87729.00999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1928360.97</v>
+        <v>87721.81</v>
       </c>
       <c r="D29" t="n">
-        <v>1927707.25</v>
+        <v>62722.62</v>
+      </c>
+      <c r="E29" t="n">
+        <v>62643.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45747.36</v>
+        <v>1976674.58</v>
       </c>
       <c r="C30" t="n">
-        <v>45714.74</v>
+        <v>1928360.97</v>
       </c>
       <c r="D30" t="n">
-        <v>35730.41</v>
+        <v>1927707.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1927326.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4558.05</v>
+        <v>45747.36</v>
       </c>
       <c r="C31" t="n">
-        <v>4555.44</v>
+        <v>45714.74</v>
       </c>
       <c r="D31" t="n">
-        <v>4554.66</v>
+        <v>35730.41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35726.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138789.82</v>
+        <v>4558.05</v>
       </c>
       <c r="C32" t="n">
-        <v>133733.32</v>
+        <v>4555.44</v>
       </c>
       <c r="D32" t="n">
-        <v>128764.11</v>
+        <v>4554.66</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4557.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>275283.19</v>
+        <v>138789.82</v>
       </c>
       <c r="C33" t="n">
-        <v>265073.7</v>
+        <v>133733.32</v>
       </c>
       <c r="D33" t="n">
-        <v>225396.48</v>
+        <v>128764.11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>123770.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32436.65</v>
+        <v>275283.19</v>
       </c>
       <c r="C34" t="n">
-        <v>33943.21</v>
+        <v>265073.7</v>
       </c>
       <c r="D34" t="n">
-        <v>43659.5</v>
+        <v>225396.48</v>
+      </c>
+      <c r="E34" t="n">
+        <v>220224.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8103.05</v>
+        <v>32436.65</v>
       </c>
       <c r="C35" t="n">
-        <v>8104.65</v>
+        <v>33943.21</v>
       </c>
       <c r="D35" t="n">
-        <v>9325.459999999999</v>
+        <v>43659.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>45674.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21706.76</v>
+        <v>8103.05</v>
       </c>
       <c r="C36" t="n">
-        <v>21711.31</v>
+        <v>8104.65</v>
       </c>
       <c r="D36" t="n">
-        <v>21656.68</v>
+        <v>9325.459999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9326.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23745.09</v>
+        <v>21706.76</v>
       </c>
       <c r="C37" t="n">
-        <v>23704.47</v>
+        <v>21711.31</v>
       </c>
       <c r="D37" t="n">
-        <v>23747.8</v>
+        <v>21656.68</v>
+      </c>
+      <c r="E37" t="n">
+        <v>24969.49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30176.82</v>
+        <v>23745.09</v>
       </c>
       <c r="C38" t="n">
-        <v>30163.52</v>
+        <v>23704.47</v>
       </c>
       <c r="D38" t="n">
-        <v>21802.78</v>
+        <v>23747.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40728.91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61581.46</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>30176.82</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30163.52</v>
+      </c>
       <c r="D39" t="n">
-        <v>61608.13</v>
+        <v>21802.78</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24993.69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132762.87</v>
-      </c>
-      <c r="C40" t="n">
-        <v>132740.58</v>
-      </c>
+        <v>61581.46</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>132695.81</v>
+        <v>61608.13</v>
+      </c>
+      <c r="E40" t="n">
+        <v>61591.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34754.06</v>
+        <v>132762.87</v>
       </c>
       <c r="C41" t="n">
-        <v>34785.32</v>
+        <v>132740.58</v>
       </c>
       <c r="D41" t="n">
-        <v>34697.72</v>
+        <v>132695.81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>132957.68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96329.37</v>
+        <v>34754.06</v>
       </c>
       <c r="C42" t="n">
-        <v>96227.52</v>
+        <v>34785.32</v>
       </c>
       <c r="D42" t="n">
-        <v>96150.28</v>
+        <v>34697.72</v>
+      </c>
+      <c r="E42" t="n">
+        <v>34737.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66545.2</v>
+        <v>96329.37</v>
       </c>
       <c r="C43" t="n">
-        <v>66517.99000000001</v>
+        <v>96227.52</v>
       </c>
       <c r="D43" t="n">
-        <v>62656.78</v>
+        <v>96150.28</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96327.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>548193.05</v>
+        <v>66545.2</v>
       </c>
       <c r="C44" t="n">
-        <v>560367.16</v>
+        <v>66517.99000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>572931.5699999999</v>
+        <v>62656.78</v>
+      </c>
+      <c r="E44" t="n">
+        <v>61509.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1317408.94</v>
+        <v>548193.05</v>
       </c>
       <c r="C45" t="n">
-        <v>1317359.35</v>
+        <v>560367.16</v>
       </c>
       <c r="D45" t="n">
-        <v>1317336.23</v>
+        <v>572931.5699999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>621141.78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>715172.0600000001</v>
+        <v>1317408.94</v>
       </c>
       <c r="C46" t="n">
-        <v>716517.87</v>
+        <v>1317359.35</v>
       </c>
       <c r="D46" t="n">
-        <v>767218.66</v>
+        <v>1317336.23</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1317734.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>54956.5</v>
+        <v>715172.0600000001</v>
       </c>
       <c r="C47" t="n">
-        <v>55248.68</v>
+        <v>716517.87</v>
       </c>
       <c r="D47" t="n">
-        <v>55593.54</v>
-      </c>
+        <v>767218.66</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>41918.65</v>
+        <v>54956.5</v>
       </c>
       <c r="C48" t="n">
-        <v>38263.48</v>
+        <v>55248.68</v>
       </c>
       <c r="D48" t="n">
-        <v>38306.38</v>
+        <v>55593.54</v>
+      </c>
+      <c r="E48" t="n">
+        <v>54306.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>240887.66</v>
+        <v>41918.65</v>
       </c>
       <c r="C49" t="n">
-        <v>247212.54</v>
+        <v>38263.48</v>
       </c>
       <c r="D49" t="n">
-        <v>238458.54</v>
+        <v>38306.38</v>
+      </c>
+      <c r="E49" t="n">
+        <v>38250.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>240887.66</v>
+      </c>
+      <c r="C50" t="n">
+        <v>247212.54</v>
+      </c>
+      <c r="D50" t="n">
+        <v>238458.54</v>
+      </c>
+      <c r="E50" t="n">
+        <v>227051.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>11321720.08</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>8899651.43</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>11207551.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10671397.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>150692.89</v>
       </c>
+      <c r="F2" t="n">
+        <v>150935.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>216322.57</v>
       </c>
+      <c r="F3" t="n">
+        <v>207606.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>38010.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37966.13</v>
       </c>
     </row>
     <row r="5">
@@ -524,6 +538,9 @@
       <c r="E5" t="n">
         <v>86329.19</v>
       </c>
+      <c r="F5" t="n">
+        <v>206241.54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +560,9 @@
       <c r="E6" t="n">
         <v>54868.94</v>
       </c>
+      <c r="F6" t="n">
+        <v>54828.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>84190.60000000001</v>
       </c>
+      <c r="F7" t="n">
+        <v>84266.25999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>232783.49</v>
       </c>
+      <c r="F8" t="n">
+        <v>232478.79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -600,6 +626,9 @@
       <c r="E9" t="n">
         <v>4180.88</v>
       </c>
+      <c r="F9" t="n">
+        <v>4154.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -619,6 +648,9 @@
       <c r="E10" t="n">
         <v>703849.01</v>
       </c>
+      <c r="F10" t="n">
+        <v>750499.6899999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -638,6 +670,9 @@
       <c r="E11" t="n">
         <v>10079.87</v>
       </c>
+      <c r="F11" t="n">
+        <v>10048.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -657,6 +692,9 @@
       <c r="E12" t="n">
         <v>16814.28</v>
       </c>
+      <c r="F12" t="n">
+        <v>16824.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -676,6 +714,9 @@
       <c r="E13" t="n">
         <v>159509.89</v>
       </c>
+      <c r="F13" t="n">
+        <v>169490.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -695,6 +736,9 @@
       <c r="E14" t="n">
         <v>77746.60000000001</v>
       </c>
+      <c r="F14" t="n">
+        <v>87695.03999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>213813.45</v>
       </c>
+      <c r="F15" t="n">
+        <v>213711.99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -733,6 +780,9 @@
       <c r="E16" t="n">
         <v>1261907.02</v>
       </c>
+      <c r="F16" t="n">
+        <v>1253639.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -751,6 +801,9 @@
       </c>
       <c r="E17" t="n">
         <v>12522.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12523.21</v>
       </c>
     </row>
     <row r="18">
@@ -769,6 +822,9 @@
       <c r="E18" t="n">
         <v>439705.29</v>
       </c>
+      <c r="F18" t="n">
+        <v>439542.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -786,6 +842,9 @@
       <c r="E19" t="n">
         <v>174910.21</v>
       </c>
+      <c r="F19" t="n">
+        <v>175067.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -803,6 +862,9 @@
       <c r="E20" t="n">
         <v>58172.56</v>
       </c>
+      <c r="F20" t="n">
+        <v>58193.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -820,6 +882,9 @@
       <c r="E21" t="n">
         <v>169.38</v>
       </c>
+      <c r="F21" t="n">
+        <v>167.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -837,6 +902,9 @@
       <c r="E22" t="n">
         <v>521541.45</v>
       </c>
+      <c r="F22" t="n">
+        <v>509160.87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -854,6 +922,9 @@
       <c r="E23" t="n">
         <v>365106.96</v>
       </c>
+      <c r="F23" t="n">
+        <v>352325.65</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -871,6 +942,9 @@
       <c r="E24" t="n">
         <v>105901.65</v>
       </c>
+      <c r="F24" t="n">
+        <v>105980.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -888,6 +962,9 @@
       <c r="E25" t="n">
         <v>168737.74</v>
       </c>
+      <c r="F25" t="n">
+        <v>173337.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +982,9 @@
       <c r="E26" t="n">
         <v>160320.36</v>
       </c>
+      <c r="F26" t="n">
+        <v>159091.01</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -922,6 +1002,9 @@
       <c r="E27" t="n">
         <v>308615.96</v>
       </c>
+      <c r="F27" t="n">
+        <v>308755.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1024,9 @@
       <c r="E28" t="n">
         <v>106095.99</v>
       </c>
+      <c r="F28" t="n">
+        <v>107280.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -960,6 +1046,9 @@
       <c r="E29" t="n">
         <v>62643.17</v>
       </c>
+      <c r="F29" t="n">
+        <v>62721.62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -979,6 +1068,9 @@
       <c r="E30" t="n">
         <v>1927326.51</v>
       </c>
+      <c r="F30" t="n">
+        <v>1927886.93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -998,6 +1090,9 @@
       <c r="E31" t="n">
         <v>35726.19</v>
       </c>
+      <c r="F31" t="n">
+        <v>35730.85</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1017,6 +1112,9 @@
       <c r="E32" t="n">
         <v>4557.09</v>
       </c>
+      <c r="F32" t="n">
+        <v>4546.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1036,6 +1134,9 @@
       <c r="E33" t="n">
         <v>123770.34</v>
       </c>
+      <c r="F33" t="n">
+        <v>118743.71</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1055,6 +1156,9 @@
       <c r="E34" t="n">
         <v>220224.98</v>
       </c>
+      <c r="F34" t="n">
+        <v>220368.55</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1074,6 +1178,9 @@
       <c r="E35" t="n">
         <v>45674.62</v>
       </c>
+      <c r="F35" t="n">
+        <v>45256.54</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1093,6 +1200,9 @@
       <c r="E36" t="n">
         <v>9326.92</v>
       </c>
+      <c r="F36" t="n">
+        <v>9321.530000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1112,6 +1222,9 @@
       <c r="E37" t="n">
         <v>24969.49</v>
       </c>
+      <c r="F37" t="n">
+        <v>25035.27</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1131,6 +1244,9 @@
       <c r="E38" t="n">
         <v>40728.91</v>
       </c>
+      <c r="F38" t="n">
+        <v>40710.44</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1149,6 +1265,9 @@
       </c>
       <c r="E39" t="n">
         <v>24993.69</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24997.19</v>
       </c>
     </row>
     <row r="40">
@@ -1167,6 +1286,9 @@
       <c r="E40" t="n">
         <v>61591.51</v>
       </c>
+      <c r="F40" t="n">
+        <v>61586.06</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1186,6 +1308,9 @@
       <c r="E41" t="n">
         <v>132957.68</v>
       </c>
+      <c r="F41" t="n">
+        <v>132938.59</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1205,6 +1330,9 @@
       <c r="E42" t="n">
         <v>34737.25</v>
       </c>
+      <c r="F42" t="n">
+        <v>34786.72</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1224,6 +1352,9 @@
       <c r="E43" t="n">
         <v>96327.45</v>
       </c>
+      <c r="F43" t="n">
+        <v>96174.06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1243,6 +1374,9 @@
       <c r="E44" t="n">
         <v>61509.05</v>
       </c>
+      <c r="F44" t="n">
+        <v>66320.41</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1262,6 +1396,9 @@
       <c r="E45" t="n">
         <v>621141.78</v>
       </c>
+      <c r="F45" t="n">
+        <v>620842.34</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1281,6 +1418,9 @@
       <c r="E46" t="n">
         <v>1317734.58</v>
       </c>
+      <c r="F46" t="n">
+        <v>1317579.31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1298,6 +1438,7 @@
         <v>767218.66</v>
       </c>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1317,6 +1458,9 @@
       <c r="E48" t="n">
         <v>54306.86</v>
       </c>
+      <c r="F48" t="n">
+        <v>55410.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1336,6 +1480,9 @@
       <c r="E49" t="n">
         <v>38250.19</v>
       </c>
+      <c r="F49" t="n">
+        <v>38232.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1355,6 +1502,9 @@
       <c r="E50" t="n">
         <v>227051.01</v>
       </c>
+      <c r="F50" t="n">
+        <v>230234.09</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1373,6 +1523,9 @@
       </c>
       <c r="E51" t="n">
         <v>10671397.33</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10821002.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>150935.15</v>
       </c>
+      <c r="G2" t="n">
+        <v>150755.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>207606.38</v>
       </c>
+      <c r="G3" t="n">
+        <v>208016.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>37966.13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37878.02</v>
       </c>
     </row>
     <row r="5">
@@ -541,6 +555,9 @@
       <c r="F5" t="n">
         <v>206241.54</v>
       </c>
+      <c r="G5" t="n">
+        <v>191382.93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,6 +580,9 @@
       <c r="F6" t="n">
         <v>54828.93</v>
       </c>
+      <c r="G6" t="n">
+        <v>54883.61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>84266.25999999999</v>
       </c>
+      <c r="G7" t="n">
+        <v>84412.87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>232478.79</v>
       </c>
+      <c r="G8" t="n">
+        <v>232725.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -629,6 +655,9 @@
       <c r="F9" t="n">
         <v>4154.06</v>
       </c>
+      <c r="G9" t="n">
+        <v>4150.45</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -651,6 +680,9 @@
       <c r="F10" t="n">
         <v>750499.6899999999</v>
       </c>
+      <c r="G10" t="n">
+        <v>720826.62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="F11" t="n">
         <v>10048.91</v>
       </c>
+      <c r="G11" t="n">
+        <v>10048</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -695,6 +730,9 @@
       <c r="F12" t="n">
         <v>16824.25</v>
       </c>
+      <c r="G12" t="n">
+        <v>16818.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -717,6 +755,9 @@
       <c r="F13" t="n">
         <v>169490.88</v>
       </c>
+      <c r="G13" t="n">
+        <v>179522.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -739,6 +780,9 @@
       <c r="F14" t="n">
         <v>87695.03999999999</v>
       </c>
+      <c r="G14" t="n">
+        <v>87716.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>213711.99</v>
       </c>
+      <c r="G15" t="n">
+        <v>212476.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -783,6 +830,9 @@
       <c r="F16" t="n">
         <v>1253639.28</v>
       </c>
+      <c r="G16" t="n">
+        <v>1242449.71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -804,6 +854,9 @@
       </c>
       <c r="F17" t="n">
         <v>12523.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12518.33</v>
       </c>
     </row>
     <row r="18">
@@ -825,6 +878,9 @@
       <c r="F18" t="n">
         <v>439542.3</v>
       </c>
+      <c r="G18" t="n">
+        <v>439638.65</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -845,6 +901,9 @@
       <c r="F19" t="n">
         <v>175067.8</v>
       </c>
+      <c r="G19" t="n">
+        <v>175013.93</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -865,6 +924,9 @@
       <c r="F20" t="n">
         <v>58193.13</v>
       </c>
+      <c r="G20" t="n">
+        <v>58128.98</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -885,6 +947,9 @@
       <c r="F21" t="n">
         <v>167.21</v>
       </c>
+      <c r="G21" t="n">
+        <v>169.47</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -905,6 +970,9 @@
       <c r="F22" t="n">
         <v>509160.87</v>
       </c>
+      <c r="G22" t="n">
+        <v>496636.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -925,6 +993,9 @@
       <c r="F23" t="n">
         <v>352325.65</v>
       </c>
+      <c r="G23" t="n">
+        <v>352371.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -945,6 +1016,9 @@
       <c r="F24" t="n">
         <v>105980.39</v>
       </c>
+      <c r="G24" t="n">
+        <v>105828.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -965,6 +1039,9 @@
       <c r="F25" t="n">
         <v>173337.8</v>
       </c>
+      <c r="G25" t="n">
+        <v>170046.94</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1062,9 @@
       <c r="F26" t="n">
         <v>159091.01</v>
       </c>
+      <c r="G26" t="n">
+        <v>157683.01</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1005,6 +1085,9 @@
       <c r="F27" t="n">
         <v>308755.43</v>
       </c>
+      <c r="G27" t="n">
+        <v>310819.31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1110,9 @@
       <c r="F28" t="n">
         <v>107280.25</v>
       </c>
+      <c r="G28" t="n">
+        <v>107366.52</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1049,6 +1135,9 @@
       <c r="F29" t="n">
         <v>62721.62</v>
       </c>
+      <c r="G29" t="n">
+        <v>62636.29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1071,6 +1160,9 @@
       <c r="F30" t="n">
         <v>1927886.93</v>
       </c>
+      <c r="G30" t="n">
+        <v>1927788.31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1093,6 +1185,9 @@
       <c r="F31" t="n">
         <v>35730.85</v>
       </c>
+      <c r="G31" t="n">
+        <v>35695.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1115,6 +1210,9 @@
       <c r="F32" t="n">
         <v>4546.79</v>
       </c>
+      <c r="G32" t="n">
+        <v>4546.98</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1137,6 +1235,9 @@
       <c r="F33" t="n">
         <v>118743.71</v>
       </c>
+      <c r="G33" t="n">
+        <v>125766.47</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1159,6 +1260,9 @@
       <c r="F34" t="n">
         <v>220368.55</v>
       </c>
+      <c r="G34" t="n">
+        <v>225203.37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1181,6 +1285,9 @@
       <c r="F35" t="n">
         <v>45256.54</v>
       </c>
+      <c r="G35" t="n">
+        <v>45285.52</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1203,6 +1310,9 @@
       <c r="F36" t="n">
         <v>9321.530000000001</v>
       </c>
+      <c r="G36" t="n">
+        <v>9321.879999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1225,6 +1335,9 @@
       <c r="F37" t="n">
         <v>25035.27</v>
       </c>
+      <c r="G37" t="n">
+        <v>29033.67</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1247,6 +1360,9 @@
       <c r="F38" t="n">
         <v>40710.44</v>
       </c>
+      <c r="G38" t="n">
+        <v>40734.01</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1268,6 +1384,9 @@
       </c>
       <c r="F39" t="n">
         <v>24997.19</v>
+      </c>
+      <c r="G39" t="n">
+        <v>24968.27</v>
       </c>
     </row>
     <row r="40">
@@ -1289,6 +1408,9 @@
       <c r="F40" t="n">
         <v>61586.06</v>
       </c>
+      <c r="G40" t="n">
+        <v>69618.32000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1311,6 +1433,9 @@
       <c r="F41" t="n">
         <v>132938.59</v>
       </c>
+      <c r="G41" t="n">
+        <v>132915.02</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1333,6 +1458,9 @@
       <c r="F42" t="n">
         <v>34786.72</v>
       </c>
+      <c r="G42" t="n">
+        <v>34726.67</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1355,6 +1483,9 @@
       <c r="F43" t="n">
         <v>96174.06</v>
       </c>
+      <c r="G43" t="n">
+        <v>96284.45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1377,6 +1508,9 @@
       <c r="F44" t="n">
         <v>66320.41</v>
       </c>
+      <c r="G44" t="n">
+        <v>67068.96000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1399,6 +1533,9 @@
       <c r="F45" t="n">
         <v>620842.34</v>
       </c>
+      <c r="G45" t="n">
+        <v>620921.27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1421,6 +1558,9 @@
       <c r="F46" t="n">
         <v>1317579.31</v>
       </c>
+      <c r="G46" t="n">
+        <v>1308596.16</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1439,6 +1579,7 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1461,6 +1602,9 @@
       <c r="F48" t="n">
         <v>55410.8</v>
       </c>
+      <c r="G48" t="n">
+        <v>54823.01</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1483,6 +1627,9 @@
       <c r="F49" t="n">
         <v>38232.18</v>
       </c>
+      <c r="G49" t="n">
+        <v>38246.93</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1505,6 +1652,9 @@
       <c r="F50" t="n">
         <v>230234.09</v>
       </c>
+      <c r="G50" t="n">
+        <v>229243.96</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1526,6 +1676,9 @@
       </c>
       <c r="F51" t="n">
         <v>10821002.22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10774466.19</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>150755.19</v>
       </c>
+      <c r="H2" t="n">
+        <v>139432.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>208016.82</v>
       </c>
+      <c r="H3" t="n">
+        <v>196934.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>37878.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41389.43</v>
       </c>
     </row>
     <row r="5">
@@ -558,6 +572,9 @@
       <c r="G5" t="n">
         <v>191382.93</v>
       </c>
+      <c r="H5" t="n">
+        <v>191748.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,6 +600,9 @@
       <c r="G6" t="n">
         <v>54883.61</v>
       </c>
+      <c r="H6" t="n">
+        <v>54895.99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>84412.87</v>
       </c>
+      <c r="H7" t="n">
+        <v>84192.89999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>232725.56</v>
       </c>
+      <c r="H8" t="n">
+        <v>232987.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -658,6 +684,9 @@
       <c r="G9" t="n">
         <v>4150.45</v>
       </c>
+      <c r="H9" t="n">
+        <v>4177.74</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -683,6 +712,9 @@
       <c r="G10" t="n">
         <v>720826.62</v>
       </c>
+      <c r="H10" t="n">
+        <v>719355.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -708,6 +740,9 @@
       <c r="G11" t="n">
         <v>10048</v>
       </c>
+      <c r="H11" t="n">
+        <v>10041.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -733,6 +768,9 @@
       <c r="G12" t="n">
         <v>16818.99</v>
       </c>
+      <c r="H12" t="n">
+        <v>16821.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -758,6 +796,9 @@
       <c r="G13" t="n">
         <v>179522.4</v>
       </c>
+      <c r="H13" t="n">
+        <v>188336.34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -783,6 +824,9 @@
       <c r="G14" t="n">
         <v>87716.12</v>
       </c>
+      <c r="H14" t="n">
+        <v>91015.99000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>212476.9</v>
       </c>
+      <c r="H15" t="n">
+        <v>212484.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -833,6 +880,9 @@
       <c r="G16" t="n">
         <v>1242449.71</v>
       </c>
+      <c r="H16" t="n">
+        <v>1235574.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -857,6 +907,9 @@
       </c>
       <c r="G17" t="n">
         <v>12518.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12518.52</v>
       </c>
     </row>
     <row r="18">
@@ -881,6 +934,9 @@
       <c r="G18" t="n">
         <v>439638.65</v>
       </c>
+      <c r="H18" t="n">
+        <v>439680.78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -904,6 +960,9 @@
       <c r="G19" t="n">
         <v>175013.93</v>
       </c>
+      <c r="H19" t="n">
+        <v>175127.45</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -927,6 +986,9 @@
       <c r="G20" t="n">
         <v>58128.98</v>
       </c>
+      <c r="H20" t="n">
+        <v>58181.49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -950,6 +1012,9 @@
       <c r="G21" t="n">
         <v>169.47</v>
       </c>
+      <c r="H21" t="n">
+        <v>169.33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -973,6 +1038,9 @@
       <c r="G22" t="n">
         <v>496636.01</v>
       </c>
+      <c r="H22" t="n">
+        <v>496638.72</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -996,6 +1064,9 @@
       <c r="G23" t="n">
         <v>352371.6</v>
       </c>
+      <c r="H23" t="n">
+        <v>352494.41</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1019,6 +1090,9 @@
       <c r="G24" t="n">
         <v>105828.5</v>
       </c>
+      <c r="H24" t="n">
+        <v>105997.13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1042,6 +1116,9 @@
       <c r="G25" t="n">
         <v>170046.94</v>
       </c>
+      <c r="H25" t="n">
+        <v>169928.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1142,9 @@
       <c r="G26" t="n">
         <v>157683.01</v>
       </c>
+      <c r="H26" t="n">
+        <v>157518.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1088,6 +1168,9 @@
       <c r="G27" t="n">
         <v>310819.31</v>
       </c>
+      <c r="H27" t="n">
+        <v>311053.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1196,9 @@
       <c r="G28" t="n">
         <v>107366.52</v>
       </c>
+      <c r="H28" t="n">
+        <v>107231.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1138,6 +1224,9 @@
       <c r="G29" t="n">
         <v>62636.29</v>
       </c>
+      <c r="H29" t="n">
+        <v>101492.09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1163,6 +1252,9 @@
       <c r="G30" t="n">
         <v>1927788.31</v>
       </c>
+      <c r="H30" t="n">
+        <v>1928825.94</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1188,6 +1280,9 @@
       <c r="G31" t="n">
         <v>35695.19</v>
       </c>
+      <c r="H31" t="n">
+        <v>35706.66</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1213,6 +1308,9 @@
       <c r="G32" t="n">
         <v>4546.98</v>
       </c>
+      <c r="H32" t="n">
+        <v>4553.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1238,6 +1336,9 @@
       <c r="G33" t="n">
         <v>125766.47</v>
       </c>
+      <c r="H33" t="n">
+        <v>128885.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1263,6 +1364,9 @@
       <c r="G34" t="n">
         <v>225203.37</v>
       </c>
+      <c r="H34" t="n">
+        <v>225086.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1288,6 +1392,9 @@
       <c r="G35" t="n">
         <v>45285.52</v>
       </c>
+      <c r="H35" t="n">
+        <v>53728.33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1313,6 +1420,9 @@
       <c r="G36" t="n">
         <v>9321.879999999999</v>
       </c>
+      <c r="H36" t="n">
+        <v>9317.59</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1338,6 +1448,9 @@
       <c r="G37" t="n">
         <v>29033.67</v>
       </c>
+      <c r="H37" t="n">
+        <v>28953.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1363,6 +1476,9 @@
       <c r="G38" t="n">
         <v>40734.01</v>
       </c>
+      <c r="H38" t="n">
+        <v>40697</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1387,6 +1503,9 @@
       </c>
       <c r="G39" t="n">
         <v>24968.27</v>
+      </c>
+      <c r="H39" t="n">
+        <v>25002.29</v>
       </c>
     </row>
     <row r="40">
@@ -1411,6 +1530,9 @@
       <c r="G40" t="n">
         <v>69618.32000000001</v>
       </c>
+      <c r="H40" t="n">
+        <v>69529.59</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1436,6 +1558,9 @@
       <c r="G41" t="n">
         <v>132915.02</v>
       </c>
+      <c r="H41" t="n">
+        <v>132804</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1461,6 +1586,9 @@
       <c r="G42" t="n">
         <v>34726.67</v>
       </c>
+      <c r="H42" t="n">
+        <v>44796.8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1486,6 +1614,9 @@
       <c r="G43" t="n">
         <v>96284.45</v>
       </c>
+      <c r="H43" t="n">
+        <v>96267.00999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1511,6 +1642,9 @@
       <c r="G44" t="n">
         <v>67068.96000000001</v>
       </c>
+      <c r="H44" t="n">
+        <v>67245.98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1536,6 +1670,9 @@
       <c r="G45" t="n">
         <v>620921.27</v>
       </c>
+      <c r="H45" t="n">
+        <v>606678.62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1560,6 +1697,9 @@
       </c>
       <c r="G46" t="n">
         <v>1308596.16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1294205.99</v>
       </c>
     </row>
     <row r="47">
@@ -1580,6 +1720,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1605,6 +1746,9 @@
       <c r="G48" t="n">
         <v>54823.01</v>
       </c>
+      <c r="H48" t="n">
+        <v>55166.05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1630,6 +1774,9 @@
       <c r="G49" t="n">
         <v>38246.93</v>
       </c>
+      <c r="H49" t="n">
+        <v>38290.23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1655,6 +1802,9 @@
       <c r="G50" t="n">
         <v>229243.96</v>
       </c>
+      <c r="H50" t="n">
+        <v>229641.74</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1679,6 +1829,9 @@
       </c>
       <c r="G51" t="n">
         <v>10774466.19</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10793161.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>139432.01</v>
       </c>
+      <c r="I2" t="n">
+        <v>127377.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>196934.34</v>
       </c>
+      <c r="I3" t="n">
+        <v>196828.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>41389.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41448.11</v>
       </c>
     </row>
     <row r="5">
@@ -575,6 +589,9 @@
       <c r="H5" t="n">
         <v>191748.63</v>
       </c>
+      <c r="I5" t="n">
+        <v>189437.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +620,9 @@
       <c r="H6" t="n">
         <v>54895.99</v>
       </c>
+      <c r="I6" t="n">
+        <v>54873.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>84192.89999999999</v>
       </c>
+      <c r="I7" t="n">
+        <v>84419.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>232987.47</v>
       </c>
+      <c r="I8" t="n">
+        <v>220707.13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -687,6 +713,9 @@
       <c r="H9" t="n">
         <v>4177.74</v>
       </c>
+      <c r="I9" t="n">
+        <v>4158.73</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -715,6 +744,9 @@
       <c r="H10" t="n">
         <v>719355.95</v>
       </c>
+      <c r="I10" t="n">
+        <v>719369.5699999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -743,6 +775,9 @@
       <c r="H11" t="n">
         <v>10041.26</v>
       </c>
+      <c r="I11" t="n">
+        <v>10045.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -771,6 +806,9 @@
       <c r="H12" t="n">
         <v>16821.44</v>
       </c>
+      <c r="I12" t="n">
+        <v>16826.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -799,6 +837,9 @@
       <c r="H13" t="n">
         <v>188336.34</v>
       </c>
+      <c r="I13" t="n">
+        <v>188431.97</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -827,6 +868,9 @@
       <c r="H14" t="n">
         <v>91015.99000000001</v>
       </c>
+      <c r="I14" t="n">
+        <v>90973.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>212484.5</v>
       </c>
+      <c r="I15" t="n">
+        <v>212472.22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -883,6 +930,9 @@
       <c r="H16" t="n">
         <v>1235574.8</v>
       </c>
+      <c r="I16" t="n">
+        <v>1224203.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -910,6 +960,9 @@
       </c>
       <c r="H17" t="n">
         <v>12518.52</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12520.6</v>
       </c>
     </row>
     <row r="18">
@@ -937,6 +990,9 @@
       <c r="H18" t="n">
         <v>439680.78</v>
       </c>
+      <c r="I18" t="n">
+        <v>439842.91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -963,6 +1019,9 @@
       <c r="H19" t="n">
         <v>175127.45</v>
       </c>
+      <c r="I19" t="n">
+        <v>175090.63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -989,6 +1048,9 @@
       <c r="H20" t="n">
         <v>58181.49</v>
       </c>
+      <c r="I20" t="n">
+        <v>58127.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1015,6 +1077,9 @@
       <c r="H21" t="n">
         <v>169.33</v>
       </c>
+      <c r="I21" t="n">
+        <v>173.04</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1041,6 +1106,9 @@
       <c r="H22" t="n">
         <v>496638.72</v>
       </c>
+      <c r="I22" t="n">
+        <v>496762.32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1067,6 +1135,9 @@
       <c r="H23" t="n">
         <v>352494.41</v>
       </c>
+      <c r="I23" t="n">
+        <v>352548.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1093,6 +1164,9 @@
       <c r="H24" t="n">
         <v>105997.13</v>
       </c>
+      <c r="I24" t="n">
+        <v>106403.23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1119,6 +1193,9 @@
       <c r="H25" t="n">
         <v>169928.24</v>
       </c>
+      <c r="I25" t="n">
+        <v>161849.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1222,9 @@
       <c r="H26" t="n">
         <v>157518.77</v>
       </c>
+      <c r="I26" t="n">
+        <v>154043.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1171,6 +1251,9 @@
       <c r="H27" t="n">
         <v>311053.9</v>
       </c>
+      <c r="I27" t="n">
+        <v>309966.34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1282,9 @@
       <c r="H28" t="n">
         <v>107231.02</v>
       </c>
+      <c r="I28" t="n">
+        <v>107373.18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1227,6 +1313,9 @@
       <c r="H29" t="n">
         <v>101492.09</v>
       </c>
+      <c r="I29" t="n">
+        <v>101534.83</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1255,6 +1344,9 @@
       <c r="H30" t="n">
         <v>1928825.94</v>
       </c>
+      <c r="I30" t="n">
+        <v>1928677.74</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1283,6 +1375,9 @@
       <c r="H31" t="n">
         <v>35706.66</v>
       </c>
+      <c r="I31" t="n">
+        <v>35759.11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1311,6 +1406,9 @@
       <c r="H32" t="n">
         <v>4553.61</v>
       </c>
+      <c r="I32" t="n">
+        <v>4558.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1339,6 +1437,9 @@
       <c r="H33" t="n">
         <v>128885.75</v>
       </c>
+      <c r="I33" t="n">
+        <v>118752.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1367,6 +1468,9 @@
       <c r="H34" t="n">
         <v>225086.5</v>
       </c>
+      <c r="I34" t="n">
+        <v>215352.48</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1395,6 +1499,9 @@
       <c r="H35" t="n">
         <v>53728.33</v>
       </c>
+      <c r="I35" t="n">
+        <v>53769.44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1423,6 +1530,9 @@
       <c r="H36" t="n">
         <v>9317.59</v>
       </c>
+      <c r="I36" t="n">
+        <v>9319.24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1451,6 +1561,9 @@
       <c r="H37" t="n">
         <v>28953.3</v>
       </c>
+      <c r="I37" t="n">
+        <v>33985.81</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1479,6 +1592,9 @@
       <c r="H38" t="n">
         <v>40697</v>
       </c>
+      <c r="I38" t="n">
+        <v>40747.59</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1506,6 +1622,9 @@
       </c>
       <c r="H39" t="n">
         <v>25002.29</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24973.08</v>
       </c>
     </row>
     <row r="40">
@@ -1533,6 +1652,9 @@
       <c r="H40" t="n">
         <v>69529.59</v>
       </c>
+      <c r="I40" t="n">
+        <v>69607.89</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1561,6 +1683,9 @@
       <c r="H41" t="n">
         <v>132804</v>
       </c>
+      <c r="I41" t="n">
+        <v>132756.39</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1589,6 +1714,9 @@
       <c r="H42" t="n">
         <v>44796.8</v>
       </c>
+      <c r="I42" t="n">
+        <v>44784.97</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1617,6 +1745,9 @@
       <c r="H43" t="n">
         <v>96267.00999999999</v>
       </c>
+      <c r="I43" t="n">
+        <v>96198.17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1645,6 +1776,9 @@
       <c r="H44" t="n">
         <v>67245.98</v>
       </c>
+      <c r="I44" t="n">
+        <v>67250.89</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1673,6 +1807,9 @@
       <c r="H45" t="n">
         <v>606678.62</v>
       </c>
+      <c r="I45" t="n">
+        <v>606566.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1700,6 +1837,9 @@
       </c>
       <c r="H46" t="n">
         <v>1294205.99</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1277205.13</v>
       </c>
     </row>
     <row r="47">
@@ -1721,6 +1861,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1749,6 +1890,9 @@
       <c r="H48" t="n">
         <v>55166.05</v>
       </c>
+      <c r="I48" t="n">
+        <v>55083.68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1777,6 +1921,9 @@
       <c r="H49" t="n">
         <v>38290.23</v>
       </c>
+      <c r="I49" t="n">
+        <v>38255.53</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1805,6 +1952,9 @@
       <c r="H50" t="n">
         <v>229641.74</v>
       </c>
+      <c r="I50" t="n">
+        <v>227902.42</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1832,6 +1982,9 @@
       </c>
       <c r="H51" t="n">
         <v>10793161.88</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10711413.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>127377.27</v>
       </c>
+      <c r="J2" t="n">
+        <v>127424.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>196828.29</v>
       </c>
+      <c r="J3" t="n">
+        <v>196630.74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>41448.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41409.36</v>
       </c>
     </row>
     <row r="5">
@@ -592,6 +606,9 @@
       <c r="I5" t="n">
         <v>189437.52</v>
       </c>
+      <c r="J5" t="n">
+        <v>203318.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -623,6 +640,9 @@
       <c r="I6" t="n">
         <v>54873.48</v>
       </c>
+      <c r="J6" t="n">
+        <v>54894.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>84419.78</v>
       </c>
+      <c r="J7" t="n">
+        <v>84361.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>220707.13</v>
       </c>
+      <c r="J8" t="n">
+        <v>220750.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -716,6 +742,9 @@
       <c r="I9" t="n">
         <v>4158.73</v>
       </c>
+      <c r="J9" t="n">
+        <v>4172.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -747,6 +776,9 @@
       <c r="I10" t="n">
         <v>719369.5699999999</v>
       </c>
+      <c r="J10" t="n">
+        <v>738104.54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,6 +810,9 @@
       <c r="I11" t="n">
         <v>10045.9</v>
       </c>
+      <c r="J11" t="n">
+        <v>10022</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -809,6 +844,9 @@
       <c r="I12" t="n">
         <v>16826.33</v>
       </c>
+      <c r="J12" t="n">
+        <v>16821.42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -840,6 +878,9 @@
       <c r="I13" t="n">
         <v>188431.97</v>
       </c>
+      <c r="J13" t="n">
+        <v>188347.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -871,6 +912,9 @@
       <c r="I14" t="n">
         <v>90973.95</v>
       </c>
+      <c r="J14" t="n">
+        <v>90971.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>212472.22</v>
       </c>
+      <c r="J15" t="n">
+        <v>212526.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -933,6 +980,9 @@
       <c r="I16" t="n">
         <v>1224203.1</v>
       </c>
+      <c r="J16" t="n">
+        <v>1213742.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -963,6 +1013,9 @@
       </c>
       <c r="I17" t="n">
         <v>12520.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12521.17</v>
       </c>
     </row>
     <row r="18">
@@ -993,6 +1046,9 @@
       <c r="I18" t="n">
         <v>439842.91</v>
       </c>
+      <c r="J18" t="n">
+        <v>427648.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1022,6 +1078,9 @@
       <c r="I19" t="n">
         <v>175090.63</v>
       </c>
+      <c r="J19" t="n">
+        <v>174839.28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1051,6 +1110,9 @@
       <c r="I20" t="n">
         <v>58127.53</v>
       </c>
+      <c r="J20" t="n">
+        <v>58148.11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1080,6 +1142,9 @@
       <c r="I21" t="n">
         <v>173.04</v>
       </c>
+      <c r="J21" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1109,6 +1174,9 @@
       <c r="I22" t="n">
         <v>496762.32</v>
       </c>
+      <c r="J22" t="n">
+        <v>476463.88</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1138,6 +1206,9 @@
       <c r="I23" t="n">
         <v>352548.47</v>
       </c>
+      <c r="J23" t="n">
+        <v>352684.27</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1167,6 +1238,9 @@
       <c r="I24" t="n">
         <v>106403.23</v>
       </c>
+      <c r="J24" t="n">
+        <v>106048.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1196,6 +1270,9 @@
       <c r="I25" t="n">
         <v>161849.39</v>
       </c>
+      <c r="J25" t="n">
+        <v>159117.06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1302,9 @@
       <c r="I26" t="n">
         <v>154043.22</v>
       </c>
+      <c r="J26" t="n">
+        <v>149243.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1254,6 +1334,9 @@
       <c r="I27" t="n">
         <v>309966.34</v>
       </c>
+      <c r="J27" t="n">
+        <v>301069.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1368,9 @@
       <c r="I28" t="n">
         <v>107373.18</v>
       </c>
+      <c r="J28" t="n">
+        <v>107308.36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1316,6 +1402,9 @@
       <c r="I29" t="n">
         <v>101534.83</v>
       </c>
+      <c r="J29" t="n">
+        <v>101430.15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1347,6 +1436,9 @@
       <c r="I30" t="n">
         <v>1928677.74</v>
       </c>
+      <c r="J30" t="n">
+        <v>2000787.42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1378,6 +1470,9 @@
       <c r="I31" t="n">
         <v>35759.11</v>
       </c>
+      <c r="J31" t="n">
+        <v>35741.39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1409,6 +1504,9 @@
       <c r="I32" t="n">
         <v>4558.31</v>
       </c>
+      <c r="J32" t="n">
+        <v>4553.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1440,6 +1538,9 @@
       <c r="I33" t="n">
         <v>118752.95</v>
       </c>
+      <c r="J33" t="n">
+        <v>113754.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1471,6 +1572,9 @@
       <c r="I34" t="n">
         <v>215352.48</v>
       </c>
+      <c r="J34" t="n">
+        <v>215432.52</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1502,6 +1606,9 @@
       <c r="I35" t="n">
         <v>53769.44</v>
       </c>
+      <c r="J35" t="n">
+        <v>53791.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1533,6 +1640,9 @@
       <c r="I36" t="n">
         <v>9319.24</v>
       </c>
+      <c r="J36" t="n">
+        <v>9321.209999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1564,6 +1674,9 @@
       <c r="I37" t="n">
         <v>33985.81</v>
       </c>
+      <c r="J37" t="n">
+        <v>37513.84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1595,6 +1708,9 @@
       <c r="I38" t="n">
         <v>40747.59</v>
       </c>
+      <c r="J38" t="n">
+        <v>40717.54</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1625,6 +1741,9 @@
       </c>
       <c r="I39" t="n">
         <v>24973.08</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24996.93</v>
       </c>
     </row>
     <row r="40">
@@ -1655,6 +1774,9 @@
       <c r="I40" t="n">
         <v>69607.89</v>
       </c>
+      <c r="J40" t="n">
+        <v>69551.28999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1686,6 +1808,9 @@
       <c r="I41" t="n">
         <v>132756.39</v>
       </c>
+      <c r="J41" t="n">
+        <v>132873.62</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1717,6 +1842,9 @@
       <c r="I42" t="n">
         <v>44784.97</v>
       </c>
+      <c r="J42" t="n">
+        <v>44782.36</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1748,6 +1876,9 @@
       <c r="I43" t="n">
         <v>96198.17</v>
       </c>
+      <c r="J43" t="n">
+        <v>96306.71000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1779,6 +1910,9 @@
       <c r="I44" t="n">
         <v>67250.89</v>
       </c>
+      <c r="J44" t="n">
+        <v>67246.27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1810,6 +1944,9 @@
       <c r="I45" t="n">
         <v>606566.2</v>
       </c>
+      <c r="J45" t="n">
+        <v>607039.34</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1840,6 +1977,9 @@
       </c>
       <c r="I46" t="n">
         <v>1277205.13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1263861.86</v>
       </c>
     </row>
     <row r="47">
@@ -1862,6 +2002,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1893,6 +2034,9 @@
       <c r="I48" t="n">
         <v>55083.68</v>
       </c>
+      <c r="J48" t="n">
+        <v>54949.44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1924,6 +2068,9 @@
       <c r="I49" t="n">
         <v>38255.53</v>
       </c>
+      <c r="J49" t="n">
+        <v>38297.76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1955,6 +2102,9 @@
       <c r="I50" t="n">
         <v>227902.42</v>
       </c>
+      <c r="J50" t="n">
+        <v>228546.96</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1985,6 +2135,9 @@
       </c>
       <c r="I51" t="n">
         <v>10711413.64</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10741707.24</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>127424.06</v>
       </c>
+      <c r="K2" t="n">
+        <v>121085.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>196630.74</v>
       </c>
+      <c r="K3" t="n">
+        <v>204181.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>41409.36</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41450.7</v>
       </c>
     </row>
     <row r="5">
@@ -609,6 +623,9 @@
       <c r="J5" t="n">
         <v>203318.31</v>
       </c>
+      <c r="K5" t="n">
+        <v>216590.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>54894.82</v>
       </c>
+      <c r="K6" t="n">
+        <v>54919.77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>84361.61</v>
       </c>
+      <c r="K7" t="n">
+        <v>84276.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>220750.19</v>
       </c>
+      <c r="K8" t="n">
+        <v>221044.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -745,6 +771,9 @@
       <c r="J9" t="n">
         <v>4172.09</v>
       </c>
+      <c r="K9" t="n">
+        <v>4169.92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -779,6 +808,9 @@
       <c r="J10" t="n">
         <v>738104.54</v>
       </c>
+      <c r="K10" t="n">
+        <v>766718.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>10022</v>
       </c>
+      <c r="K11" t="n">
+        <v>1198.98</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -847,6 +882,9 @@
       <c r="J12" t="n">
         <v>16821.42</v>
       </c>
+      <c r="K12" t="n">
+        <v>16808.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -881,6 +919,9 @@
       <c r="J13" t="n">
         <v>188347.3</v>
       </c>
+      <c r="K13" t="n">
+        <v>194332.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -915,6 +956,9 @@
       <c r="J14" t="n">
         <v>90971.59</v>
       </c>
+      <c r="K14" t="n">
+        <v>90976.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>212526.75</v>
       </c>
+      <c r="K15" t="n">
+        <v>212465.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -983,6 +1030,9 @@
       <c r="J16" t="n">
         <v>1213742.83</v>
       </c>
+      <c r="K16" t="n">
+        <v>1204732.51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1016,6 +1066,9 @@
       </c>
       <c r="J17" t="n">
         <v>12521.17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12523.8</v>
       </c>
     </row>
     <row r="18">
@@ -1049,6 +1102,9 @@
       <c r="J18" t="n">
         <v>427648.52</v>
       </c>
+      <c r="K18" t="n">
+        <v>427627.66</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1081,6 +1137,9 @@
       <c r="J19" t="n">
         <v>174839.28</v>
       </c>
+      <c r="K19" t="n">
+        <v>181656.65</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1113,6 +1172,9 @@
       <c r="J20" t="n">
         <v>58148.11</v>
       </c>
+      <c r="K20" t="n">
+        <v>58187.72</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1145,6 +1207,9 @@
       <c r="J21" t="n">
         <v>168.5</v>
       </c>
+      <c r="K21" t="n">
+        <v>168.63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1177,6 +1242,9 @@
       <c r="J22" t="n">
         <v>476463.88</v>
       </c>
+      <c r="K22" t="n">
+        <v>468093.21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1209,6 +1277,9 @@
       <c r="J23" t="n">
         <v>352684.27</v>
       </c>
+      <c r="K23" t="n">
+        <v>352618.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1241,6 +1312,9 @@
       <c r="J24" t="n">
         <v>106048.35</v>
       </c>
+      <c r="K24" t="n">
+        <v>106239.63</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1273,6 +1347,9 @@
       <c r="J25" t="n">
         <v>159117.06</v>
       </c>
+      <c r="K25" t="n">
+        <v>152376.46</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1305,6 +1382,9 @@
       <c r="J26" t="n">
         <v>149243.77</v>
       </c>
+      <c r="K26" t="n">
+        <v>144357.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1337,6 +1417,9 @@
       <c r="J27" t="n">
         <v>301069.07</v>
       </c>
+      <c r="K27" t="n">
+        <v>298800.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1371,6 +1454,9 @@
       <c r="J28" t="n">
         <v>107308.36</v>
       </c>
+      <c r="K28" t="n">
+        <v>107141.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1405,6 +1491,9 @@
       <c r="J29" t="n">
         <v>101430.15</v>
       </c>
+      <c r="K29" t="n">
+        <v>101558.86</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1439,6 +1528,9 @@
       <c r="J30" t="n">
         <v>2000787.42</v>
       </c>
+      <c r="K30" t="n">
+        <v>2000058.94</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1473,6 +1565,9 @@
       <c r="J31" t="n">
         <v>35741.39</v>
       </c>
+      <c r="K31" t="n">
+        <v>35722.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1507,6 +1602,9 @@
       <c r="J32" t="n">
         <v>4553.65</v>
       </c>
+      <c r="K32" t="n">
+        <v>4554.73</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1541,6 +1639,9 @@
       <c r="J33" t="n">
         <v>113754.89</v>
       </c>
+      <c r="K33" t="n">
+        <v>108745.65</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1575,6 +1676,9 @@
       <c r="J34" t="n">
         <v>215432.52</v>
       </c>
+      <c r="K34" t="n">
+        <v>208122.04</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1609,6 +1713,9 @@
       <c r="J35" t="n">
         <v>53791.1</v>
       </c>
+      <c r="K35" t="n">
+        <v>53750.74</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1643,6 +1750,9 @@
       <c r="J36" t="n">
         <v>9321.209999999999</v>
       </c>
+      <c r="K36" t="n">
+        <v>9327.35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1677,6 +1787,9 @@
       <c r="J37" t="n">
         <v>37513.84</v>
       </c>
+      <c r="K37" t="n">
+        <v>34010.88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1711,6 +1824,9 @@
       <c r="J38" t="n">
         <v>40717.54</v>
       </c>
+      <c r="K38" t="n">
+        <v>40699.43</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1744,6 +1860,9 @@
       </c>
       <c r="J39" t="n">
         <v>24996.93</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24974</v>
       </c>
     </row>
     <row r="40">
@@ -1777,6 +1896,9 @@
       <c r="J40" t="n">
         <v>69551.28999999999</v>
       </c>
+      <c r="K40" t="n">
+        <v>69491.53</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1811,6 +1933,9 @@
       <c r="J41" t="n">
         <v>132873.62</v>
       </c>
+      <c r="K41" t="n">
+        <v>132665.54</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1845,6 +1970,9 @@
       <c r="J42" t="n">
         <v>44782.36</v>
       </c>
+      <c r="K42" t="n">
+        <v>42003.29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1879,6 +2007,9 @@
       <c r="J43" t="n">
         <v>96306.71000000001</v>
       </c>
+      <c r="K43" t="n">
+        <v>96194.56</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1913,6 +2044,9 @@
       <c r="J44" t="n">
         <v>67246.27</v>
       </c>
+      <c r="K44" t="n">
+        <v>67197.84</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1947,6 +2081,9 @@
       <c r="J45" t="n">
         <v>607039.34</v>
       </c>
+      <c r="K45" t="n">
+        <v>606653.52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1980,6 +2117,9 @@
       </c>
       <c r="J46" t="n">
         <v>1263861.86</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1263367.97</v>
       </c>
     </row>
     <row r="47">
@@ -2003,6 +2143,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2037,6 +2178,9 @@
       <c r="J48" t="n">
         <v>54949.44</v>
       </c>
+      <c r="K48" t="n">
+        <v>55298.79</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2071,6 +2215,9 @@
       <c r="J49" t="n">
         <v>38297.76</v>
       </c>
+      <c r="K49" t="n">
+        <v>38298.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2105,6 +2252,9 @@
       <c r="J50" t="n">
         <v>228546.96</v>
       </c>
+      <c r="K50" t="n">
+        <v>228456.15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2138,6 +2288,9 @@
       </c>
       <c r="J51" t="n">
         <v>10741707.24</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10737439.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>121085.61</v>
       </c>
+      <c r="L2" t="n">
+        <v>98894.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>204181.38</v>
       </c>
+      <c r="L3" t="n">
+        <v>195526.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -594,6 +605,9 @@
       </c>
       <c r="K4" t="n">
         <v>41450.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41379.62</v>
       </c>
     </row>
     <row r="5">
@@ -626,6 +640,9 @@
       <c r="K5" t="n">
         <v>216590.63</v>
       </c>
+      <c r="L5" t="n">
+        <v>246417.45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +680,9 @@
       <c r="K6" t="n">
         <v>54919.77</v>
       </c>
+      <c r="L6" t="n">
+        <v>54877.22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>84276.3</v>
       </c>
+      <c r="L7" t="n">
+        <v>84364.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>221044.62</v>
       </c>
+      <c r="L8" t="n">
+        <v>193541.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -774,6 +800,9 @@
       <c r="K9" t="n">
         <v>4169.92</v>
       </c>
+      <c r="L9" t="n">
+        <v>4170.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -811,6 +840,9 @@
       <c r="K10" t="n">
         <v>766718.53</v>
       </c>
+      <c r="L10" t="n">
+        <v>808987.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="K11" t="n">
         <v>1198.98</v>
       </c>
+      <c r="L11" t="n">
+        <v>1198.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -885,6 +920,9 @@
       <c r="K12" t="n">
         <v>16808.5</v>
       </c>
+      <c r="L12" t="n">
+        <v>16816.87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -922,6 +960,9 @@
       <c r="K13" t="n">
         <v>194332.38</v>
       </c>
+      <c r="L13" t="n">
+        <v>194485.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -959,6 +1000,9 @@
       <c r="K14" t="n">
         <v>90976.16</v>
       </c>
+      <c r="L14" t="n">
+        <v>90979.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>212465.16</v>
       </c>
+      <c r="L15" t="n">
+        <v>212510.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1033,6 +1080,9 @@
       <c r="K16" t="n">
         <v>1204732.51</v>
       </c>
+      <c r="L16" t="n">
+        <v>1201539.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1069,6 +1119,9 @@
       </c>
       <c r="K17" t="n">
         <v>12523.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12518.05</v>
       </c>
     </row>
     <row r="18">
@@ -1105,6 +1158,9 @@
       <c r="K18" t="n">
         <v>427627.66</v>
       </c>
+      <c r="L18" t="n">
+        <v>427794.37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1140,6 +1196,9 @@
       <c r="K19" t="n">
         <v>181656.65</v>
       </c>
+      <c r="L19" t="n">
+        <v>184886.83</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1175,6 +1234,9 @@
       <c r="K20" t="n">
         <v>58187.72</v>
       </c>
+      <c r="L20" t="n">
+        <v>58161.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1210,6 +1272,9 @@
       <c r="K21" t="n">
         <v>168.63</v>
       </c>
+      <c r="L21" t="n">
+        <v>171.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1245,6 +1310,9 @@
       <c r="K22" t="n">
         <v>468093.21</v>
       </c>
+      <c r="L22" t="n">
+        <v>430016.52</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1280,6 +1348,9 @@
       <c r="K23" t="n">
         <v>352618.32</v>
       </c>
+      <c r="L23" t="n">
+        <v>352072.31</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1315,6 +1386,9 @@
       <c r="K24" t="n">
         <v>106239.63</v>
       </c>
+      <c r="L24" t="n">
+        <v>106305.48</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1350,6 +1424,9 @@
       <c r="K25" t="n">
         <v>152376.46</v>
       </c>
+      <c r="L25" t="n">
+        <v>148351.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1385,6 +1462,9 @@
       <c r="K26" t="n">
         <v>144357.4</v>
       </c>
+      <c r="L26" t="n">
+        <v>140557.79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1420,6 +1500,9 @@
       <c r="K27" t="n">
         <v>298800.56</v>
       </c>
+      <c r="L27" t="n">
+        <v>286083.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1457,6 +1540,9 @@
       <c r="K28" t="n">
         <v>107141.03</v>
       </c>
+      <c r="L28" t="n">
+        <v>107131.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1494,6 +1580,9 @@
       <c r="K29" t="n">
         <v>101558.86</v>
       </c>
+      <c r="L29" t="n">
+        <v>101524.62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1531,6 +1620,9 @@
       <c r="K30" t="n">
         <v>2000058.94</v>
       </c>
+      <c r="L30" t="n">
+        <v>1999489.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1568,6 +1660,9 @@
       <c r="K31" t="n">
         <v>35722.53</v>
       </c>
+      <c r="L31" t="n">
+        <v>35728.72</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1605,6 +1700,9 @@
       <c r="K32" t="n">
         <v>4554.73</v>
       </c>
+      <c r="L32" t="n">
+        <v>4557.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1642,6 +1740,9 @@
       <c r="K33" t="n">
         <v>108745.65</v>
       </c>
+      <c r="L33" t="n">
+        <v>102739.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1679,6 +1780,9 @@
       <c r="K34" t="n">
         <v>208122.04</v>
       </c>
+      <c r="L34" t="n">
+        <v>192818.77</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1716,6 +1820,9 @@
       <c r="K35" t="n">
         <v>53750.74</v>
       </c>
+      <c r="L35" t="n">
+        <v>53428.12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1753,6 +1860,9 @@
       <c r="K36" t="n">
         <v>9327.35</v>
       </c>
+      <c r="L36" t="n">
+        <v>9317.48</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1790,6 +1900,9 @@
       <c r="K37" t="n">
         <v>34010.88</v>
       </c>
+      <c r="L37" t="n">
+        <v>32467.98</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1827,6 +1940,9 @@
       <c r="K38" t="n">
         <v>40699.43</v>
       </c>
+      <c r="L38" t="n">
+        <v>40748.71</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1863,6 +1979,9 @@
       </c>
       <c r="K39" t="n">
         <v>24974</v>
+      </c>
+      <c r="L39" t="n">
+        <v>24972.35</v>
       </c>
     </row>
     <row r="40">
@@ -1899,6 +2018,9 @@
       <c r="K40" t="n">
         <v>69491.53</v>
       </c>
+      <c r="L40" t="n">
+        <v>69660.37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1936,6 +2058,9 @@
       <c r="K41" t="n">
         <v>132665.54</v>
       </c>
+      <c r="L41" t="n">
+        <v>119553.86</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1973,6 +2098,9 @@
       <c r="K42" t="n">
         <v>42003.29</v>
       </c>
+      <c r="L42" t="n">
+        <v>46070.29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2010,6 +2138,9 @@
       <c r="K43" t="n">
         <v>96194.56</v>
       </c>
+      <c r="L43" t="n">
+        <v>96177.67999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2047,6 +2178,9 @@
       <c r="K44" t="n">
         <v>67197.84</v>
       </c>
+      <c r="L44" t="n">
+        <v>67248.10000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2084,6 +2218,9 @@
       <c r="K45" t="n">
         <v>606653.52</v>
       </c>
+      <c r="L45" t="n">
+        <v>588815.9399999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2120,6 +2257,9 @@
       </c>
       <c r="K46" t="n">
         <v>1263367.97</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1264019.31</v>
       </c>
     </row>
     <row r="47">
@@ -2144,6 +2284,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2181,6 +2322,9 @@
       <c r="K48" t="n">
         <v>55298.79</v>
       </c>
+      <c r="L48" t="n">
+        <v>54930.92</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2218,6 +2362,9 @@
       <c r="K49" t="n">
         <v>38298.8</v>
       </c>
+      <c r="L49" t="n">
+        <v>38295.29</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2255,6 +2402,9 @@
       <c r="K50" t="n">
         <v>228456.15</v>
       </c>
+      <c r="L50" t="n">
+        <v>226431.99</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2291,6 +2441,9 @@
       </c>
       <c r="K51" t="n">
         <v>10737439.21</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10642303.61</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>98894.87</v>
       </c>
+      <c r="M2" t="n">
+        <v>84967.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>195526.11</v>
       </c>
+      <c r="M3" t="n">
+        <v>209423.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,6 +619,9 @@
       </c>
       <c r="L4" t="n">
         <v>41379.62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36436.46</v>
       </c>
     </row>
     <row r="5">
@@ -643,6 +657,9 @@
       <c r="L5" t="n">
         <v>246417.45</v>
       </c>
+      <c r="M5" t="n">
+        <v>234578.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -683,6 +700,9 @@
       <c r="L6" t="n">
         <v>54877.22</v>
       </c>
+      <c r="M6" t="n">
+        <v>54885.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>84364.88</v>
       </c>
+      <c r="M7" t="n">
+        <v>84409.62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +786,9 @@
       <c r="L8" t="n">
         <v>193541.04</v>
       </c>
+      <c r="M8" t="n">
+        <v>165672.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -803,6 +829,9 @@
       <c r="L9" t="n">
         <v>4170.48</v>
       </c>
+      <c r="M9" t="n">
+        <v>4158.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -843,6 +872,9 @@
       <c r="L10" t="n">
         <v>808987.73</v>
       </c>
+      <c r="M10" t="n">
+        <v>791061.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -883,6 +915,9 @@
       <c r="L11" t="n">
         <v>1198.25</v>
       </c>
+      <c r="M11" t="n">
+        <v>1198.92</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -923,6 +958,9 @@
       <c r="L12" t="n">
         <v>16816.87</v>
       </c>
+      <c r="M12" t="n">
+        <v>16819.19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -963,6 +1001,9 @@
       <c r="L13" t="n">
         <v>194485.12</v>
       </c>
+      <c r="M13" t="n">
+        <v>194264.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1003,6 +1044,9 @@
       <c r="L14" t="n">
         <v>90979.41</v>
       </c>
+      <c r="M14" t="n">
+        <v>91005.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>212510.13</v>
       </c>
+      <c r="M15" t="n">
+        <v>212457.82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1083,6 +1130,9 @@
       <c r="L16" t="n">
         <v>1201539.52</v>
       </c>
+      <c r="M16" t="n">
+        <v>1187866.49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1122,6 +1172,9 @@
       </c>
       <c r="L17" t="n">
         <v>12518.05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12521.51</v>
       </c>
     </row>
     <row r="18">
@@ -1161,6 +1214,9 @@
       <c r="L18" t="n">
         <v>427794.37</v>
       </c>
+      <c r="M18" t="n">
+        <v>427299.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1199,6 +1255,9 @@
       <c r="L19" t="n">
         <v>184886.83</v>
       </c>
+      <c r="M19" t="n">
+        <v>184982.44</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1237,6 +1296,9 @@
       <c r="L20" t="n">
         <v>58161.04</v>
       </c>
+      <c r="M20" t="n">
+        <v>58194.27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1275,6 +1337,9 @@
       <c r="L21" t="n">
         <v>171.31</v>
       </c>
+      <c r="M21" t="n">
+        <v>168.41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1313,6 +1378,9 @@
       <c r="L22" t="n">
         <v>430016.52</v>
       </c>
+      <c r="M22" t="n">
+        <v>430077.14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1351,6 +1419,9 @@
       <c r="L23" t="n">
         <v>352072.31</v>
       </c>
+      <c r="M23" t="n">
+        <v>352469.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1389,6 +1460,9 @@
       <c r="L24" t="n">
         <v>106305.48</v>
       </c>
+      <c r="M24" t="n">
+        <v>105958.31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1427,6 +1501,9 @@
       <c r="L25" t="n">
         <v>148351.64</v>
       </c>
+      <c r="M25" t="n">
+        <v>148268.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1465,6 +1542,9 @@
       <c r="L26" t="n">
         <v>140557.79</v>
       </c>
+      <c r="M26" t="n">
+        <v>140689.51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1503,6 +1583,9 @@
       <c r="L27" t="n">
         <v>286083.95</v>
       </c>
+      <c r="M27" t="n">
+        <v>280309.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1543,6 +1626,9 @@
       <c r="L28" t="n">
         <v>107131.5</v>
       </c>
+      <c r="M28" t="n">
+        <v>107224.37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1583,6 +1669,9 @@
       <c r="L29" t="n">
         <v>101524.62</v>
       </c>
+      <c r="M29" t="n">
+        <v>101451.77</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1623,6 +1712,9 @@
       <c r="L30" t="n">
         <v>1999489.08</v>
       </c>
+      <c r="M30" t="n">
+        <v>2000367.93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1663,6 +1755,9 @@
       <c r="L31" t="n">
         <v>35728.72</v>
       </c>
+      <c r="M31" t="n">
+        <v>31211.29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1703,6 +1798,9 @@
       <c r="L32" t="n">
         <v>4557.14</v>
       </c>
+      <c r="M32" t="n">
+        <v>4556.82</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1743,6 +1841,9 @@
       <c r="L33" t="n">
         <v>102739.39</v>
       </c>
+      <c r="M33" t="n">
+        <v>102807.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1783,6 +1884,9 @@
       <c r="L34" t="n">
         <v>192818.77</v>
       </c>
+      <c r="M34" t="n">
+        <v>192911.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1823,6 +1927,9 @@
       <c r="L35" t="n">
         <v>53428.12</v>
       </c>
+      <c r="M35" t="n">
+        <v>47035.15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1863,6 +1970,9 @@
       <c r="L36" t="n">
         <v>9317.48</v>
       </c>
+      <c r="M36" t="n">
+        <v>9326.950000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1903,6 +2013,9 @@
       <c r="L37" t="n">
         <v>32467.98</v>
       </c>
+      <c r="M37" t="n">
+        <v>32489.35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1943,6 +2056,9 @@
       <c r="L38" t="n">
         <v>40748.71</v>
       </c>
+      <c r="M38" t="n">
+        <v>40692.87</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1982,6 +2098,9 @@
       </c>
       <c r="L39" t="n">
         <v>24972.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>24969.62</v>
       </c>
     </row>
     <row r="40">
@@ -2021,6 +2140,9 @@
       <c r="L40" t="n">
         <v>69660.37</v>
       </c>
+      <c r="M40" t="n">
+        <v>69618.17</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2061,6 +2183,9 @@
       <c r="L41" t="n">
         <v>119553.86</v>
       </c>
+      <c r="M41" t="n">
+        <v>119396.72</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2101,6 +2226,9 @@
       <c r="L42" t="n">
         <v>46070.29</v>
       </c>
+      <c r="M42" t="n">
+        <v>46067.63</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2141,6 +2269,9 @@
       <c r="L43" t="n">
         <v>96177.67999999999</v>
       </c>
+      <c r="M43" t="n">
+        <v>96341.89999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2181,6 +2312,9 @@
       <c r="L44" t="n">
         <v>67248.10000000001</v>
       </c>
+      <c r="M44" t="n">
+        <v>65355.48</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2221,6 +2355,9 @@
       <c r="L45" t="n">
         <v>588815.9399999999</v>
       </c>
+      <c r="M45" t="n">
+        <v>588739.62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2260,6 +2397,9 @@
       </c>
       <c r="L46" t="n">
         <v>1264019.31</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1263393.9</v>
       </c>
     </row>
     <row r="47">
@@ -2285,6 +2425,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2325,6 +2466,9 @@
       <c r="L48" t="n">
         <v>54930.92</v>
       </c>
+      <c r="M48" t="n">
+        <v>55427.65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2365,6 +2509,9 @@
       <c r="L49" t="n">
         <v>38295.29</v>
       </c>
+      <c r="M49" t="n">
+        <v>38294.21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2405,6 +2552,9 @@
       <c r="L50" t="n">
         <v>226431.99</v>
       </c>
+      <c r="M50" t="n">
+        <v>224421.82</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2444,6 +2594,9 @@
       </c>
       <c r="L51" t="n">
         <v>10642303.61</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10547825.34</v>
       </c>
     </row>
   </sheetData>
